--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2101.299068771746</v>
+        <v>418158.5146855775</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2101.299068771746</v>
+        <v>418158.5146855775</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85573.64452598781</v>
+        <v>5836762.799593703</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85573.64452598781</v>
+        <v>5836762.799593703</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266472003.933169</v>
+        <v>47704976.54437737</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14382.26191676692</v>
+        <v>1266160.507044476</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26801.1717234666</v>
+        <v>2192565.8772029</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39220.08153016623</v>
+        <v>3118971.247361325</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51883.30858207708</v>
+        <v>4044448.098300708</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64546.53563398791</v>
+        <v>4969924.949240089</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77209.76268589875</v>
+        <v>5895401.80017947</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89872.98973780958</v>
+        <v>6820878.651118848</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>102536.146766469</v>
+        <v>7746355.502058223</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115358.5078239556</v>
+        <v>8627559.370935451</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>128240.9059976928</v>
+        <v>9520710.625946555</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>141123.30417143</v>
+        <v>10413861.88095766</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>154005.7023451672</v>
+        <v>11307013.13596876</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>166888.1005189044</v>
+        <v>12200164.39097987</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>179770.4986926414</v>
+        <v>13093315.64599099</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>192652.8968663788</v>
+        <v>13986466.90100211</v>
       </c>
     </row>
   </sheetData>
